--- a/sales_analysis_dataset.xlsx
+++ b/sales_analysis_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sales_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Excel Works and projects\sales_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DA1078-D8CD-45DF-8684-EC6C99A09948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4038C1D0-757E-4D1A-B1F6-15366A1EDA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
   <si>
     <t>Product</t>
   </si>
@@ -203,6 +206,9 @@
   <si>
     <t>Sales Rank</t>
   </si>
+  <si>
+    <t>Count of Quantity</t>
+  </si>
 </sst>
 </file>
 
@@ -279,12 +285,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -415,12 +421,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,17 +519,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -488,489 +567,184 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="293">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1031,1829 +805,6 @@
           <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -3104,6 +1055,86 @@
       </font>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.249977111117893"/>
@@ -3162,6 +1193,102 @@
       <font>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4213,7 +2340,145 @@
           <c:size val="6"/>
           <c:spPr>
             <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+            <a:solidFill>
               <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -4277,11 +2542,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pivot-table-cal-1'!$L$3</c:f>
+              <c:f>'pivot-table-cal-1'!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Count of Quantity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4313,7 +2578,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pivot-table-cal-1'!$K$4:$K$13</c:f>
+              <c:f>'pivot-table-cal-1'!$K$15:$K$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4351,7 +2616,130 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pivot-table-cal-1'!$L$4:$L$13</c:f>
+              <c:f>'pivot-table-cal-1'!$L$15:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-294B-46A9-9938-96046F40D0C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pivot-table-cal-1'!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pivot-table-cal-1'!$K$15:$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pivot-table-cal-1'!$M$15:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4391,7 +2779,130 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-294B-46A9-9938-96046F40D0C2}"/>
+              <c16:uniqueId val="{00000001-FED8-4BFF-BFFC-A792C1F01C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pivot-table-cal-1'!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pivot-table-cal-1'!$K$15:$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pivot-table-cal-1'!$N$15:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9412</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FED8-4BFF-BFFC-A792C1F01C5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6277,15 +4788,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6313,15 +4824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
+      <xdr:colOff>185737</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6348,16 +4859,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6384,16 +4895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6408,15 +4919,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8877300" y="371475"/>
-          <a:ext cx="2895600" cy="1266825"/>
+          <a:off x="10487026" y="2466975"/>
+          <a:ext cx="1914524" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -6484,7 +4996,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="Accessories"/>
+        <s v="Electronics"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Region" numFmtId="0">
       <sharedItems count="4">
@@ -6949,7 +5464,7 @@
   <r>
     <n v="1001"/>
     <x v="0"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="28897"/>
     <s v="Jan"/>
@@ -6962,7 +5477,7 @@
   <r>
     <n v="1002"/>
     <x v="1"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="7612"/>
     <s v="Jan"/>
@@ -6975,7 +5490,7 @@
   <r>
     <n v="1003"/>
     <x v="2"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="28483"/>
     <s v="Jan"/>
@@ -6988,7 +5503,7 @@
   <r>
     <n v="1004"/>
     <x v="1"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="22159"/>
     <s v="Feb"/>
@@ -7001,7 +5516,7 @@
   <r>
     <n v="1005"/>
     <x v="1"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="49974"/>
     <s v="Mar"/>
@@ -7014,7 +5529,7 @@
   <r>
     <n v="1006"/>
     <x v="3"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="45994"/>
     <s v="Mar"/>
@@ -7027,7 +5542,7 @@
   <r>
     <n v="1007"/>
     <x v="2"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="19541"/>
     <s v="Apr"/>
@@ -7040,7 +5555,7 @@
   <r>
     <n v="1008"/>
     <x v="2"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="40920"/>
     <s v="Apr"/>
@@ -7053,7 +5568,7 @@
   <r>
     <n v="1009"/>
     <x v="2"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="31531"/>
     <s v="May"/>
@@ -7066,7 +5581,7 @@
   <r>
     <n v="1010"/>
     <x v="1"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="6585"/>
     <s v="May"/>
@@ -7079,7 +5594,7 @@
   <r>
     <n v="1011"/>
     <x v="0"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="8943"/>
     <s v="May"/>
@@ -7092,7 +5607,7 @@
   <r>
     <n v="1012"/>
     <x v="2"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="28939"/>
     <s v="Jun"/>
@@ -7105,7 +5620,7 @@
   <r>
     <n v="1013"/>
     <x v="1"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="24457"/>
     <s v="Jun"/>
@@ -7118,7 +5633,7 @@
   <r>
     <n v="1014"/>
     <x v="3"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="6021"/>
     <s v="Jul"/>
@@ -7131,7 +5646,7 @@
   <r>
     <n v="1015"/>
     <x v="0"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="16653"/>
     <s v="Jul"/>
@@ -7144,7 +5659,7 @@
   <r>
     <n v="1016"/>
     <x v="3"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="48573"/>
     <s v="Aug"/>
@@ -7157,7 +5672,7 @@
   <r>
     <n v="1017"/>
     <x v="0"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="18417"/>
     <s v="Aug"/>
@@ -7170,7 +5685,7 @@
   <r>
     <n v="1018"/>
     <x v="1"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="45757"/>
     <s v="Sep"/>
@@ -7183,7 +5698,7 @@
   <r>
     <n v="1019"/>
     <x v="4"/>
-    <s v="Accessories"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="14692"/>
     <s v="Sep"/>
@@ -7196,7 +5711,7 @@
   <r>
     <n v="1020"/>
     <x v="0"/>
-    <s v="Electronics"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="11873"/>
     <s v="Oct"/>
@@ -7210,7 +5725,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BFB63D3-F102-46A4-8076-19ABBA15CE6B}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Products">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BFB63D3-F102-46A4-8076-19ABBA15CE6B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Products">
   <location ref="A13:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7663,71 +6178,93 @@
   <dataFields count="1">
     <dataField name="Sum of Profit" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="18">
-    <format dxfId="269">
+  <formats count="24">
+    <format dxfId="51">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="268">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="267">
+    <format dxfId="49">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="266">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="265">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="264">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="263">
+    <format dxfId="45">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="262">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="261">
+    <format dxfId="43">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="260">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="259">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="258">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="251">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="250">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="249">
+    <format dxfId="37">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="248">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="247">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="246">
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7755,18 +6292,41 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E20A811F-DBEA-4C3C-9304-4DCB610761FC}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23" rowHeaderCaption="Month">
-  <location ref="K3:L13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E20A811F-DBEA-4C3C-9304-4DCB610761FC}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23" rowHeaderCaption="Month">
+  <location ref="K14:N24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="164" showAll="0">
       <items count="369">
         <item x="0"/>
@@ -8161,8 +6721,11 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="4">
     <field x="11"/>
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="10">
     <i>
@@ -8196,23 +6759,36 @@
       <x v="10"/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="3">
+    <dataField name="Count of Quantity" fld="6" subtotal="count" baseField="11" baseItem="1"/>
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Profit" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="15">
-    <format dxfId="279">
+  <formats count="20">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="278">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="277">
+    <format dxfId="64">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="276">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="10">
@@ -8230,19 +6806,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="275">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="274">
+    <format dxfId="61">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="273">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="272">
+    <format dxfId="59">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="271">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="10">
@@ -8260,19 +6836,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="270">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="245">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="244">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="243">
+    <format dxfId="54">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="242">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="10">
@@ -8290,16 +6866,72 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="241">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="10">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="19" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -8318,7 +6950,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{202F48BD-96AC-4A34-88B0-AC0A96A788CC}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{202F48BD-96AC-4A34-88B0-AC0A96A788CC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0" insertBlankRow="1"/>
@@ -8767,8 +7399,8 @@
   <dataFields count="1">
     <dataField name="Average of Sales" fld="4" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
-  <formats count="19">
-    <format dxfId="292">
+  <formats count="25">
+    <format dxfId="85">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -8777,70 +7409,92 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="291">
+    <format dxfId="84">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="290">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="289">
+    <format dxfId="82">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="288">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="287">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="286">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="285">
+    <format dxfId="78">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="284">
+    <format dxfId="77">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="283">
+    <format dxfId="76">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="282">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="281">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="280">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="257">
+    <format dxfId="72">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="256">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="255">
+    <format dxfId="70">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="254">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="253">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="252">
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9239,7 +7893,7 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9248,67 +7902,68 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -9317,344 +7972,304 @@
       <c r="B3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>30999.200000000001</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="33">
-        <v>64992</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>26826.6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="34">
-        <v>22159</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>25830.75</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="34">
-        <v>95968</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="35">
         <v>18928.166666666668</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="34">
-        <v>60461</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="36">
         <v>25301.05</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="34">
-        <v>47059</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="34">
-        <v>53396</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="34">
-        <v>22674</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="34">
-        <v>66990</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="34">
-        <v>60449</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
@@ -9663,519 +8278,618 @@
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="35">
-        <v>11873</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="31">
         <v>51543</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>47750</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="41">
+        <v>3</v>
+      </c>
+      <c r="M15" s="42">
+        <v>64992</v>
+      </c>
+      <c r="N15" s="43">
+        <v>26109</v>
+      </c>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <v>37070</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="44">
+        <v>1</v>
+      </c>
+      <c r="M16" s="45">
+        <v>22159</v>
+      </c>
+      <c r="N16" s="46">
+        <v>3454</v>
+      </c>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>23906</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="44">
+        <v>2</v>
+      </c>
+      <c r="M17" s="45">
+        <v>95968</v>
+      </c>
+      <c r="N17" s="46">
+        <v>22833</v>
+      </c>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>7910</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="44">
+        <v>2</v>
+      </c>
+      <c r="M18" s="45">
+        <v>60461</v>
+      </c>
+      <c r="N18" s="46">
+        <v>15696</v>
+      </c>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="36">
         <v>168179</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="44">
+        <v>3</v>
+      </c>
+      <c r="M19" s="45">
+        <v>47059</v>
+      </c>
+      <c r="N19" s="46">
+        <v>25972</v>
+      </c>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="44">
+        <v>2</v>
+      </c>
+      <c r="M20" s="45">
+        <v>53396</v>
+      </c>
+      <c r="N20" s="46">
+        <v>23883</v>
+      </c>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="44">
+        <v>2</v>
+      </c>
+      <c r="M21" s="45">
+        <v>22674</v>
+      </c>
+      <c r="N21" s="46">
+        <v>16722</v>
+      </c>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="44">
+        <v>2</v>
+      </c>
+      <c r="M22" s="45">
+        <v>66990</v>
+      </c>
+      <c r="N22" s="46">
+        <v>10413</v>
+      </c>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="44">
+        <v>2</v>
+      </c>
+      <c r="M23" s="45">
+        <v>60449</v>
+      </c>
+      <c r="N23" s="46">
+        <v>9412</v>
+      </c>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="49">
+        <v>1</v>
+      </c>
+      <c r="M24" s="50">
+        <v>11873</v>
+      </c>
+      <c r="N24" s="51">
+        <v>13685</v>
+      </c>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -10583,7 +9297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -10638,7 +9352,7 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -10652,981 +9366,981 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>28897</v>
       </c>
-      <c r="F2" s="10" t="str">
+      <c r="F2" s="9" t="str">
         <f>TEXT(J2,"mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>10</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>4104</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="10">
         <v>44927</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="21">
         <f>E2-(E2*H2/100)</f>
         <v>26007.3</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="11">
         <f>I2/E2</f>
         <v>0.14202166314842371</v>
       </c>
-      <c r="M2" s="13" t="str">
+      <c r="M2" s="10" t="str">
         <f>IF(E2&gt;AVERAGE($E$2:$E$21),"Above Avg","Below Avg")</f>
         <v>Above Avg</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <f>_xlfn.RANK.AVG(E2,$E$2:$E$21,0)</f>
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>1002</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>7612</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="9" t="str">
         <f t="shared" ref="F3:F21" si="0">TEXT(J3,"mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>4</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>10</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>8215</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>44942</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="21">
         <f>E3-(E3*H3/100)</f>
         <v>6850.8</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="11">
         <f t="shared" ref="L3:L21" si="1">I3/E3</f>
         <v>1.0792170257488176</v>
       </c>
-      <c r="M3" s="13" t="str">
+      <c r="M3" s="10" t="str">
         <f t="shared" ref="M3:M21" si="2">IF(E3&gt;AVERAGE($E$2:$E$21),"Above Avg","Below Avg")</f>
         <v>Below Avg</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <f t="shared" ref="N3:N21" si="3">_xlfn.RANK.AVG(E3,$E$2:$E$21,0)</f>
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1003</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>28483</v>
       </c>
-      <c r="F4" s="10" t="str">
+      <c r="F4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Jan</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>8</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>10</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>13790</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>44957</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="21">
         <f t="shared" ref="K4:K21" si="4">E4-(E4*H4/100)</f>
         <v>25634.7</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="11">
         <f t="shared" si="1"/>
         <v>0.48414843942000491</v>
       </c>
-      <c r="M4" s="13" t="str">
+      <c r="M4" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Above Avg</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>1004</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>22159</v>
       </c>
-      <c r="F5" s="10" t="str">
+      <c r="F5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>7</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>3454</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>44972</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="21">
         <f t="shared" si="4"/>
         <v>22159</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <f t="shared" si="1"/>
         <v>0.15587345999368202</v>
       </c>
-      <c r="M5" s="13" t="str">
+      <c r="M5" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>1005</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>49974</v>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>9</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>15</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>12837</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>44987</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <f t="shared" si="4"/>
         <v>42477.9</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="11">
         <f t="shared" si="1"/>
         <v>0.25687357425861446</v>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="M6" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Above Avg</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>1006</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>45994</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>8</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>10</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>9996</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>45002</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="21">
         <f t="shared" si="4"/>
         <v>41394.6</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="11">
         <f t="shared" si="1"/>
         <v>0.21733269556898727</v>
       </c>
-      <c r="M7" s="13" t="str">
+      <c r="M7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Above Avg</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>1007</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>19541</v>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Apr</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>10</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>3731</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <v>45017</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="21">
         <f t="shared" si="4"/>
         <v>17586.900000000001</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="11">
         <f t="shared" si="1"/>
         <v>0.19093188680210837</v>
       </c>
-      <c r="M8" s="13" t="str">
+      <c r="M8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>1008</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>40920</v>
       </c>
-      <c r="F9" s="10" t="str">
+      <c r="F9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Apr</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>11965</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="10">
         <v>45032</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="21">
         <f t="shared" si="4"/>
         <v>40920</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>0.29239980449657871</v>
       </c>
-      <c r="M9" s="13" t="str">
+      <c r="M9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Above Avg</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>1009</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>31531</v>
       </c>
-      <c r="F10" s="10" t="str">
+      <c r="F10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>May</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>5</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>10</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>9154</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>45047</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="21">
         <f t="shared" si="4"/>
         <v>28377.9</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>0.29031746535155878</v>
       </c>
-      <c r="M10" s="13" t="str">
+      <c r="M10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Above Avg</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>1010</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>6585</v>
       </c>
-      <c r="F11" s="10" t="str">
+      <c r="F11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>May</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>8</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>10762</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="10">
         <v>45062</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="21">
         <f t="shared" si="4"/>
         <v>6585</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="11">
         <f t="shared" si="1"/>
         <v>1.6343204252088079</v>
       </c>
-      <c r="M11" s="13" t="str">
+      <c r="M11" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>1011</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>8943</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>May</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>9</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>5</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>6056</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="10">
         <v>45077</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="21">
         <f t="shared" si="4"/>
         <v>8495.85</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="11">
         <f t="shared" si="1"/>
         <v>0.67717768086771779</v>
       </c>
-      <c r="M12" s="13" t="str">
+      <c r="M12" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>1012</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>28939</v>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Jun</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>9</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>10</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>9110</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="10">
         <v>45092</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="21">
         <f t="shared" si="4"/>
         <v>26045.1</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="11">
         <f t="shared" si="1"/>
         <v>0.31480009675524379</v>
       </c>
-      <c r="M13" s="13" t="str">
+      <c r="M13" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Above Avg</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>1013</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>24457</v>
       </c>
-      <c r="F14" s="10" t="str">
+      <c r="F14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Jun</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>1</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>5</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>14773</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <v>45107</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="21">
         <f t="shared" si="4"/>
         <v>23234.15</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="11">
         <f t="shared" si="1"/>
         <v>0.60403974322279919</v>
       </c>
-      <c r="M14" s="13" t="str">
+      <c r="M14" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>1014</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>6021</v>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Jul</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>9</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>0</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>11882</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="10">
         <v>45122</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="21">
         <f t="shared" si="4"/>
         <v>6021</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="11">
         <f t="shared" si="1"/>
         <v>1.9734263411393456</v>
       </c>
-      <c r="M15" s="13" t="str">
+      <c r="M15" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>1015</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>16653</v>
       </c>
-      <c r="F16" s="10" t="str">
+      <c r="F16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Jul</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>7</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>15</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>4840</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>45137</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="21">
         <f t="shared" si="4"/>
         <v>14155.05</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="23">
         <f t="shared" si="1"/>
         <v>0.29063832342520868</v>
       </c>
-      <c r="M16" s="25" t="str">
+      <c r="M16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>1016</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>48573</v>
       </c>
-      <c r="F17" s="10" t="str">
+      <c r="F17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Aug</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>9</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>10</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>2028</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <v>45152</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="21">
         <f t="shared" si="4"/>
         <v>43715.7</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="11">
         <f t="shared" si="1"/>
         <v>4.1751590389722683E-2</v>
       </c>
-      <c r="M17" s="13" t="str">
+      <c r="M17" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Above Avg</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>1017</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>18417</v>
       </c>
-      <c r="F18" s="10" t="str">
+      <c r="F18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Aug</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>8</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>8385</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="10">
         <v>45167</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="21">
         <f t="shared" si="4"/>
         <v>18417</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="11">
         <f t="shared" si="1"/>
         <v>0.45528587717869362</v>
       </c>
-      <c r="M18" s="13" t="str">
+      <c r="M18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>1018</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>45757</v>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Sep</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>15</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>1502</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="10">
         <v>45182</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="21">
         <f t="shared" si="4"/>
         <v>38893.449999999997</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="11">
         <f t="shared" si="1"/>
         <v>3.2825578599995631E-2</v>
       </c>
-      <c r="M19" s="13" t="str">
+      <c r="M19" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Above Avg</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>1019</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>14692</v>
       </c>
-      <c r="F20" s="10" t="str">
+      <c r="F20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Sep</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>8</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>15</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>7910</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="10">
         <v>45197</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="21">
         <f t="shared" si="4"/>
         <v>12488.2</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="11">
         <f t="shared" si="1"/>
         <v>0.53838823849714135</v>
       </c>
-      <c r="M20" s="13" t="str">
+      <c r="M20" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>1020</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>11873</v>
       </c>
-      <c r="F21" s="10" t="str">
+      <c r="F21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Oct</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>8</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>5</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>13685</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="10">
         <v>45212</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="21">
         <f t="shared" si="4"/>
         <v>11279.35</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="11">
         <f t="shared" si="1"/>
         <v>1.1526151772930178</v>
       </c>
-      <c r="M21" s="13" t="str">
+      <c r="M21" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Below Avg</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -11656,101 +10370,101 @@
       <c r="J23" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="20">
+      <c r="B27" s="17">
         <f>SUM(E2:E21)</f>
         <v>506021</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="18">
         <f>AVERAGE(I2:I21)</f>
         <v>8408.9500000000007</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="18">
         <f>MAX(E2:E21)</f>
         <v>49974</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="18">
         <f>COUNTIF(B2:B21,"Laptop")</f>
         <v>1</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="9">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="8">
         <f>COUNTIF(D2:D21,"West")</f>
         <v>5</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <f>SUM(I2:I21)/SUM(E2:E21)</f>
         <v>0.33235577179603221</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="16" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="21" cm="1">
+      <c r="I29" s="18" cm="1">
         <f t="array" ref="I29:K29">LARGE(E2:E21,{1,2,3})</f>
         <v>49974</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="18">
         <v>48573</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="18">
         <v>45994</v>
       </c>
     </row>
